--- a/src/main/java/resources/excelsheet/Mobile_Data.xlsx
+++ b/src/main/java/resources/excelsheet/Mobile_Data.xlsx
@@ -414,10 +414,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/src/main/java/resources/excelsheet/Mobile_Data.xlsx
+++ b/src/main/java/resources/excelsheet/Mobile_Data.xlsx
@@ -4,15 +4,41 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20115" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="EriBank" sheetId="1" r:id="rId1"/>
     <sheet name="SauceLab" sheetId="2" r:id="rId2"/>
     <sheet name="SwagLab" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>venkatesh</t>
+  </si>
+  <si>
+    <t>9585153467</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,12 +376,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -363,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/src/main/java/resources/excelsheet/Mobile_Data.xlsx
+++ b/src/main/java/resources/excelsheet/Mobile_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EriBank" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +40,36 @@
   </si>
   <si>
     <t>Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Pass_123</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -75,9 +105,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -391,20 +427,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -413,16 +505,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/src/main/java/resources/excelsheet/Mobile_Data.xlsx
+++ b/src/main/java/resources/excelsheet/Mobile_Data.xlsx
@@ -4,43 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="20115" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="EriBank" sheetId="1" r:id="rId1"/>
     <sheet name="SauceLab" sheetId="2" r:id="rId2"/>
     <sheet name="SwagLab" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
-    <t>standard_user</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>Product1</t>
-  </si>
-  <si>
-    <t>Product2</t>
-  </si>
-  <si>
-    <t>Sauce Labs Onesie</t>
-  </si>
-  <si>
-    <t>Test.allTheThings() T-Shirt (Red)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -48,28 +24,19 @@
     <t>Password</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Wrong</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>Pass_123</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>venkatesh</t>
+  </si>
+  <si>
+    <t>9585153467</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -105,15 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,106 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,28 +394,52 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>